--- a/OrganeHRM/TestData/LoginData.xlsx
+++ b/OrganeHRM/TestData/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8460AF-6492-4D37-861D-7CB9ACB51E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFC452C-8FA7-4D14-825E-EF657AACA482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2715" yWindow="2400" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OrganeHRM/TestData/LoginData.xlsx
+++ b/OrganeHRM/TestData/LoginData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFC452C-8FA7-4D14-825E-EF657AACA482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="2400" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="2400" windowWidth="12645" windowHeight="5805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>${EMPTY}</t>
   </si>
@@ -53,12 +52,24 @@
   </si>
   <si>
     <t>${txt_Password}</t>
+  </si>
+  <si>
+    <t>${Message}</t>
+  </si>
+  <si>
+    <t>Either username or password is invalid</t>
+  </si>
+  <si>
+    <t>Username cannot be empty</t>
+  </si>
+  <si>
+    <t>Password cannot be empty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -124,17 +135,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,102 +465,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/OrganeHRM/TestData/LoginData.xlsx
+++ b/OrganeHRM/TestData/LoginData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="2400" windowWidth="12645" windowHeight="5805"/>
+    <workbookView xWindow="2715" yWindow="2400" windowWidth="12645" windowHeight="5805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>${EMPTY}</t>
   </si>
@@ -64,6 +65,12 @@
   </si>
   <si>
     <t>Password cannot be empty</t>
+  </si>
+  <si>
+    <t>adash</t>
+  </si>
+  <si>
+    <t>adash123</t>
   </si>
 </sst>
 </file>
@@ -172,11 +179,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -468,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,10 +495,10 @@
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -590,21 +597,58 @@
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="5"/>
+      <c r="D10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>